--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2899172.407618872</v>
+        <v>2996571.058709247</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359932</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>341.8831620953263</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>14.07113985546249</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958796</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174332</v>
+        <v>72.50477145174345</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164569</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>129.3187935827077</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>144.9366201066411</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>112.7121376065772</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356735</v>
+        <v>66.70865780356738</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100842</v>
+        <v>59.24433418100848</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848793</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731858</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>62.19519770581696</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>181.1292528181113</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>302.5612148179087</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>81.31357411831704</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1038,7 +1040,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>202.0469942972071</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>63.10486044391875</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.88251911919378</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.53380053421236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1424,7 +1426,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>124.8388354402138</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>80.00124118081764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1658,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396191</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>101.9868609897541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>142.6955872305729</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1898,7 +1900,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>35.04027315184464</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>127.3165365479897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T20" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>97.93336766446936</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>97.66568238532189</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>106.0900968852901</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>142.7077357835977</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>33.67328208877213</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2891,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247554</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>77.77804428817022</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>7.730549048946741</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3196,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>52.46993471496214</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>215.530597170184</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>139.7497324335284</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>189.8747495220902</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3554,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3600,7 +3602,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247554</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>44.17970120049733</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>180.2282235518212</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>130.1364559017969</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>133.6049207487902</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>180.8840312471381</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>578.445459030245</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="C2" t="n">
-        <v>578.445459030245</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="D2" t="n">
-        <v>578.445459030245</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="E2" t="n">
-        <v>233.1089316612286</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="F2" t="n">
-        <v>226.1634309120251</v>
+        <v>630.2038349524291</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307498</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>211.9501583307499</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015908</v>
+        <v>138.9642385015907</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060706</v>
+        <v>397.0764468060704</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927189</v>
+        <v>769.5640925927185</v>
       </c>
       <c r="M2" t="n">
         <v>1200.634914689012</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.04891581168</v>
+        <v>1624.048915811679</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633671</v>
+        <v>1978.67911263367</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054131</v>
+        <v>2243.673398054129</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804438</v>
+        <v>2292.214167804436</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222158</v>
+        <v>2109.431301222156</v>
       </c>
       <c r="T2" t="n">
-        <v>1889.527734748507</v>
+        <v>1978.806257199219</v>
       </c>
       <c r="U2" t="n">
-        <v>1635.74275990501</v>
+        <v>1725.021282355721</v>
       </c>
       <c r="V2" t="n">
-        <v>1304.679872561439</v>
+        <v>1393.958395012151</v>
       </c>
       <c r="W2" t="n">
-        <v>951.9112172913249</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="X2" t="n">
-        <v>578.445459030245</v>
+        <v>1041.189739742037</v>
       </c>
       <c r="Y2" t="n">
-        <v>578.445459030245</v>
+        <v>1041.189739742037</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>643.6546745992216</v>
+        <v>811.8700116192879</v>
       </c>
       <c r="C3" t="n">
-        <v>643.6546745992216</v>
+        <v>811.8700116192879</v>
       </c>
       <c r="D3" t="n">
-        <v>494.7202649379703</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>335.4828099325148</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>335.4828099325148</v>
+        <v>359.6973722703728</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>114.6915088435657</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683008</v>
+        <v>52.12709798582523</v>
       </c>
       <c r="K3" t="n">
-        <v>338.9063907138125</v>
+        <v>282.8286256313368</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852912</v>
+        <v>654.4396961743691</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874797</v>
+        <v>1140.071509376558</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030028</v>
+        <v>1654.263565019105</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119899</v>
+        <v>2058.233162108977</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695908</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684987</v>
+        <v>2365.451310684985</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885989</v>
+        <v>2305.608548885987</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926779</v>
+        <v>2144.554785926778</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087511</v>
+        <v>1945.051103087509</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549721</v>
+        <v>1716.871275549719</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317978</v>
+        <v>1481.719167317976</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589776</v>
+        <v>1227.481810589775</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384244</v>
+        <v>1019.630310384242</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192897</v>
+        <v>811.8700116192879</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335.4612382318653</v>
+        <v>102.158320899041</v>
       </c>
       <c r="C4" t="n">
-        <v>335.4612382318653</v>
+        <v>102.158320899041</v>
       </c>
       <c r="D4" t="n">
-        <v>335.4612382318653</v>
+        <v>102.158320899041</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5481446494721</v>
+        <v>102.158320899041</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5481446494721</v>
+        <v>102.158320899041</v>
       </c>
       <c r="G4" t="n">
-        <v>187.5481446494721</v>
+        <v>102.158320899041</v>
       </c>
       <c r="H4" t="n">
-        <v>187.5481446494721</v>
+        <v>102.158320899041</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369974</v>
+        <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369974</v>
+        <v>47.3090262136997</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181585</v>
+        <v>88.80529410181572</v>
       </c>
       <c r="L4" t="n">
-        <v>197.432664936566</v>
+        <v>197.4326649365657</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950595</v>
+        <v>322.3541198950591</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896737</v>
+        <v>449.7398382896732</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885924</v>
+        <v>551.3848716885918</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546184</v>
+        <v>614.8390752546177</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546184</v>
+        <v>574.5343321664171</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546184</v>
+        <v>574.5343321664171</v>
       </c>
       <c r="S4" t="n">
-        <v>398.284670257943</v>
+        <v>574.5343321664171</v>
       </c>
       <c r="T4" t="n">
-        <v>335.4612382318653</v>
+        <v>574.5343321664171</v>
       </c>
       <c r="U4" t="n">
-        <v>335.4612382318653</v>
+        <v>391.5754909360016</v>
       </c>
       <c r="V4" t="n">
-        <v>335.4612382318653</v>
+        <v>391.5754909360016</v>
       </c>
       <c r="W4" t="n">
-        <v>335.4612382318653</v>
+        <v>102.158320899041</v>
       </c>
       <c r="X4" t="n">
-        <v>335.4612382318653</v>
+        <v>102.158320899041</v>
       </c>
       <c r="Y4" t="n">
-        <v>335.4612382318653</v>
+        <v>102.158320899041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1254.177966138804</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>885.2154491983927</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>526.9497505916422</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E5" t="n">
-        <v>526.9497505916422</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>554.041713274013</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>136.0779051721998</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>136.0779051721998</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4653,10 +4655,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>632.5171804765284</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.641263708175</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="C8" t="n">
-        <v>1567.641263708175</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
         <v>1363.553390680693</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2578.37811827203</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2359.743451244093</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2105.981665882184</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1732.515907621104</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772296</v>
+        <v>1732.515907621104</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4884,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
         <v>235.9284171545819</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.9648234799758</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770186</v>
+        <v>551.8181649141599</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>551.8181649141599</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749765</v>
@@ -5027,7 +5029,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,22 +5044,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1069.293752345675</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.844055175503</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N11" t="n">
-        <v>2667.236715577531</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5130,16 +5132,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>465.8764929059532</v>
+        <v>1104.146255802442</v>
       </c>
       <c r="C13" t="n">
-        <v>465.8764929059532</v>
+        <v>935.2100728745354</v>
       </c>
       <c r="D13" t="n">
-        <v>465.8764929059532</v>
+        <v>785.0934334621996</v>
       </c>
       <c r="E13" t="n">
-        <v>465.8764929059532</v>
+        <v>637.1803398798065</v>
       </c>
       <c r="F13" t="n">
-        <v>318.9865454080428</v>
+        <v>490.2903923818961</v>
       </c>
       <c r="G13" t="n">
-        <v>318.9865454080428</v>
+        <v>322.5875557566151</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>176.3703689744729</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5221,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689057</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814701</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V13" t="n">
-        <v>1385.724257814701</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="W13" t="n">
-        <v>1096.30708777774</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="X13" t="n">
-        <v>868.3175368797231</v>
+        <v>1506.587299776212</v>
       </c>
       <c r="Y13" t="n">
-        <v>647.524957736193</v>
+        <v>1285.794720632682</v>
       </c>
     </row>
     <row r="14">
@@ -5273,52 +5275,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
         <v>2760.816196754298</v>
@@ -5352,7 +5354,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390117</v>
@@ -5370,10 +5372,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>492.7083461157117</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>492.7083461157117</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>492.7083461157117</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>344.7952525333186</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5470,16 +5472,16 @@
         <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1412.55611102446</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W16" t="n">
-        <v>1123.138940987499</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="X16" t="n">
-        <v>895.1493900894816</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y16" t="n">
-        <v>674.3568109459515</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>351.3014367967928</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>685.1208104866391</v>
       </c>
       <c r="L17" t="n">
-        <v>1404.507041060941</v>
+        <v>1549.639626139994</v>
       </c>
       <c r="M17" t="n">
-        <v>2383.05734389077</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>3362.809616117416</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996753</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,13 +5548,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102191</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.2638710736754</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C19" t="n">
-        <v>263.2638710736754</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y19" t="n">
-        <v>263.2638710736754</v>
+        <v>1156.056813762912</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5752,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>786.6724891157203</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5777,7 +5779,7 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089887</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,7 +5834,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5853,28 +5855,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8133219477185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>803.8133219477185</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1575.904531088583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1575.904531088583</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1321.220042882696</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1031.802872845736</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>803.8133219477185</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>803.8133219477185</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,10 +5974,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5987,52 +5989,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6087,31 +6089,31 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>975.7719389238397</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C25" t="n">
-        <v>806.8357559959328</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D25" t="n">
-        <v>656.719116583597</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E25" t="n">
-        <v>508.8060230012039</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>361.9160755032935</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>194.2132388780125</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689057</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689057</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1674.827124689057</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>1385.409954652097</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>1157.420403754079</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>1157.420403754079</v>
+        <v>374.5351764602888</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1650.184003770974</v>
+        <v>1963.918173296943</v>
       </c>
       <c r="M26" t="n">
-        <v>2628.734306600802</v>
+        <v>2497.450077968867</v>
       </c>
       <c r="N26" t="n">
-        <v>3175.513123659584</v>
+        <v>3044.228895027649</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3481.560883867703</v>
+        <v>3673.368275229806</v>
       </c>
       <c r="C28" t="n">
-        <v>3312.624700939796</v>
+        <v>3529.219047165566</v>
       </c>
       <c r="D28" t="n">
-        <v>3162.508061527461</v>
+        <v>3379.10240775323</v>
       </c>
       <c r="E28" t="n">
-        <v>3014.594967945067</v>
+        <v>3231.189314170837</v>
       </c>
       <c r="F28" t="n">
-        <v>3014.594967945067</v>
+        <v>3231.189314170837</v>
       </c>
       <c r="G28" t="n">
-        <v>3014.594967945067</v>
+        <v>3063.486477545556</v>
       </c>
       <c r="H28" t="n">
-        <v>3014.594967945067</v>
+        <v>2917.269290763414</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763413</v>
+        <v>2917.269290763414</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210348</v>
+        <v>2962.391923210349</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159224</v>
+        <v>3166.379106159225</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.93890460772</v>
+        <v>3482.938904607721</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207269</v>
+        <v>3827.09595020727</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913134</v>
+        <v>4168.504326913135</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833547</v>
+        <v>4467.833925833548</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267206</v>
+        <v>4700.441426267207</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.221265177249</v>
+        <v>4688.22126517725</v>
       </c>
       <c r="S28" t="n">
-        <v>4496.535381004075</v>
+        <v>4688.22126517725</v>
       </c>
       <c r="T28" t="n">
-        <v>4496.535381004075</v>
+        <v>4688.22126517725</v>
       </c>
       <c r="U28" t="n">
-        <v>4207.432514129719</v>
+        <v>4399.118398302893</v>
       </c>
       <c r="V28" t="n">
-        <v>4173.419097878434</v>
+        <v>4144.433910097006</v>
       </c>
       <c r="W28" t="n">
-        <v>3884.001927841473</v>
+        <v>3855.016740060046</v>
       </c>
       <c r="X28" t="n">
-        <v>3884.001927841473</v>
+        <v>3855.016740060046</v>
       </c>
       <c r="Y28" t="n">
-        <v>3663.209348697943</v>
+        <v>3855.016740060046</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,16 +6466,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427193</v>
+        <v>753.1470291944256</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1617.66584484778</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025902</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196469</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O29" t="n">
         <v>4010.914672075806</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3576.687616095327</v>
+        <v>582.3166934139181</v>
       </c>
       <c r="C31" t="n">
-        <v>3407.751433167421</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D31" t="n">
-        <v>3407.751433167421</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>3329.187752068259</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>3182.297804570348</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U31" t="n">
-        <v>4496.535381004075</v>
+        <v>1756.848946528553</v>
       </c>
       <c r="V31" t="n">
-        <v>4496.535381004075</v>
+        <v>1502.164458322666</v>
       </c>
       <c r="W31" t="n">
-        <v>4207.118210967114</v>
+        <v>1212.747288285705</v>
       </c>
       <c r="X31" t="n">
-        <v>3979.128660069097</v>
+        <v>984.7577373876879</v>
       </c>
       <c r="Y31" t="n">
-        <v>3758.336080925567</v>
+        <v>763.9651582441578</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176192</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1614.698881814248</v>
       </c>
       <c r="M32" t="n">
-        <v>2151.197749519704</v>
+        <v>2593.249184644076</v>
       </c>
       <c r="N32" t="n">
-        <v>3130.950021746351</v>
+        <v>3573.001456870723</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>974.4454116758762</v>
+        <v>3848.480841330645</v>
       </c>
       <c r="C34" t="n">
-        <v>805.5092287479694</v>
+        <v>3679.544658402738</v>
       </c>
       <c r="D34" t="n">
-        <v>655.3925893356336</v>
+        <v>3529.428018990402</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>3381.514925408009</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>3328.514991352492</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>3160.81215472721</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945068</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763414</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210349</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159225</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607721</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.09595020727</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913135</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833548</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267207</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>4586.365838246548</v>
       </c>
       <c r="T34" t="n">
-        <v>1457.119450779781</v>
+        <v>4586.365838246548</v>
       </c>
       <c r="U34" t="n">
-        <v>1457.119450779781</v>
+        <v>4297.262971372192</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.434962573894</v>
+        <v>4297.262971372192</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.434962573894</v>
+        <v>4297.262971372192</v>
       </c>
       <c r="X34" t="n">
-        <v>974.4454116758762</v>
+        <v>4069.273420474175</v>
       </c>
       <c r="Y34" t="n">
-        <v>974.4454116758762</v>
+        <v>3848.480841330645</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6920,37 +6922,37 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>919.9473678912377</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1784.466183544592</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6968,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7014,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.5269503710301</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="C37" t="n">
-        <v>393.5907674431232</v>
+        <v>539.8079542252655</v>
       </c>
       <c r="D37" t="n">
-        <v>243.4741280307875</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7126,19 +7128,19 @@
         <v>1453.060509258583</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V37" t="n">
-        <v>972.1649660992872</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W37" t="n">
-        <v>972.1649660992872</v>
+        <v>908.9588510157357</v>
       </c>
       <c r="X37" t="n">
-        <v>744.1754152012699</v>
+        <v>680.9693001177184</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.1754152012699</v>
+        <v>680.9693001177184</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7157,10 +7159,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7175,25 +7177,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1670.680157531994</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2649.230460361822</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.6138567886371</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C40" t="n">
-        <v>245.6776738607302</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7363,19 +7365,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208122</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W40" t="n">
-        <v>817.0549007624069</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X40" t="n">
-        <v>817.0549007624069</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y40" t="n">
-        <v>596.2623216188767</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7393,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,25 +7414,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>806.1613418786392</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1670.680157531994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2649.230460361822</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N41" t="n">
-        <v>3196.009277420604</v>
+        <v>3507.942201196469</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324507</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>260.9043113423041</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7597,22 +7599,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>1633.206616374159</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>1344.103749499802</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208122</v>
+        <v>1089.419261293915</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838516</v>
+        <v>800.0020912569549</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858343</v>
+        <v>572.0125403589376</v>
       </c>
       <c r="Y43" t="n">
-        <v>260.9043113423041</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7648,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1296.118160724479</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2274.668463554308</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N44" t="n">
-        <v>3254.420735780954</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
         <v>4719.034655862919</v>
@@ -7685,7 +7687,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.070220408989</v>
@@ -7725,13 +7727,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>637.1336314069201</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="C46" t="n">
-        <v>637.1336314069201</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="D46" t="n">
-        <v>487.0169919945844</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E46" t="n">
         <v>339.1038984121913</v>
@@ -7843,13 +7845,13 @@
         <v>1220.870226851286</v>
       </c>
       <c r="W46" t="n">
-        <v>1085.915761448467</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X46" t="n">
-        <v>857.9262105504503</v>
+        <v>703.4635059163079</v>
       </c>
       <c r="Y46" t="n">
-        <v>637.1336314069201</v>
+        <v>520.752363242431</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>69.44682818639328</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>159.9845957362331</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>55.86574532263818</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,25 +8692,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>73.34731650832828</v>
+        <v>315.1679217109335</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8933,13 +8935,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>32.86979469803975</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400261</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704337</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>169.5026663584982</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9182,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>170.1140909277314</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,16 +9412,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>282.7041781993166</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>317.514626110615</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,28 +9877,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>410.4190035206686</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>123.4719563470494</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>136.2499899971307</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>180.7381496078632</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>226.7688596193129</v>
       </c>
       <c r="M32" t="n">
-        <v>384.8145893755072</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>304.7351805999712</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10823,19 +10825,19 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>283.3156027685513</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704411</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10844,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>20.70318561719188</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>441.4693580670879</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>229.1155640189945</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>410.4190035206678</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>19.91617947410698</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16.35117922902047</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>43.43418703317711</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>83.01406815846428</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>144.7917070300927</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>91.26811680410505</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>121.6155816116998</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>47.0893325289989</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>112.4945564668047</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>24.53908531503015</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>218.4643612350559</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.65591835839895</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24894,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>278.4812891566662</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>92.95111330796911</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>4.018352105985201</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>27.49708866509945</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983812</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>62.26289380173782</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>242.0321370051155</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>106.2947747847698</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.556976973657214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>89.41249337437227</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>152.9180775878008</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>37.70062210495666</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>745987.2574976874</v>
+        <v>745987.2574976875</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745987.2574976875</v>
+        <v>745987.2574976874</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>745987.2574976875</v>
+        <v>745987.2574976874</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846405</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078711</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="I2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="K2" t="n">
+        <v>675039.0377078711</v>
+      </c>
+      <c r="L2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="M2" t="n">
         <v>675039.0377078716</v>
       </c>
-      <c r="G2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078711</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="J2" t="n">
-        <v>675039.0377078712</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="L2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>675039.0377078714</v>
+      </c>
+      <c r="O2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="P2" t="n">
         <v>675039.0377078715</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078716</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="P2" t="n">
-        <v>675039.0377078716</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106469</v>
+        <v>493391.6844106463</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.6395744702</v>
+        <v>91792.63957447073</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>154726.5356832157</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220104</v>
+        <v>21342.09858220111</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861107</v>
+        <v>244465.9635861109</v>
       </c>
       <c r="C4" t="n">
         <v>218780.324998335</v>
       </c>
       <c r="D4" t="n">
-        <v>218780.324998335</v>
+        <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079773</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="G4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="H4" t="n">
+        <v>32032.95503079769</v>
+      </c>
+      <c r="I4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.95503079773</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32032.95503079773</v>
+      </c>
+      <c r="M4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="N4" t="n">
         <v>32032.95503079772</v>
       </c>
-      <c r="I4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
         <v>32032.95503079771</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.95503079773</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32032.9550307977</v>
-      </c>
-      <c r="N4" t="n">
-        <v>32032.95503079774</v>
-      </c>
-      <c r="O4" t="n">
-        <v>32032.95503079772</v>
       </c>
       <c r="P4" t="n">
         <v>32032.95503079772</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140117</v>
+        <v>76261.10613140112</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,19 +26487,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116233.2497435183</v>
+        <v>-116233.2497435174</v>
       </c>
       <c r="C6" t="n">
-        <v>304453.4617484262</v>
+        <v>304453.461748426</v>
       </c>
       <c r="D6" t="n">
         <v>396246.1013228967</v>
       </c>
       <c r="E6" t="n">
-        <v>-180754.8495700466</v>
+        <v>-180754.8495700464</v>
       </c>
       <c r="F6" t="n">
-        <v>546622.5644233603</v>
+        <v>546622.5644233597</v>
       </c>
       <c r="G6" t="n">
-        <v>546622.5644233599</v>
+        <v>546622.5644233598</v>
       </c>
       <c r="H6" t="n">
-        <v>546622.5644233597</v>
+        <v>546622.5644233604</v>
       </c>
       <c r="I6" t="n">
-        <v>546622.5644233599</v>
+        <v>546622.56442336</v>
       </c>
       <c r="J6" t="n">
-        <v>391896.0287401441</v>
+        <v>391896.0287401445</v>
       </c>
       <c r="K6" t="n">
-        <v>525280.4658411589</v>
+        <v>525280.4658411586</v>
       </c>
       <c r="L6" t="n">
         <v>546622.5644233599</v>
       </c>
       <c r="M6" t="n">
-        <v>416980.2495844154</v>
+        <v>416980.2495844156</v>
       </c>
       <c r="N6" t="n">
+        <v>546622.56442336</v>
+      </c>
+      <c r="O6" t="n">
         <v>546622.5644233603</v>
       </c>
-      <c r="O6" t="n">
-        <v>546622.56442336</v>
-      </c>
       <c r="P6" t="n">
-        <v>546622.5644233603</v>
+        <v>546622.5644233602</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435489</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435489</v>
+        <v>306.3599178435484</v>
       </c>
       <c r="C3" t="n">
-        <v>71.3837463735378</v>
+        <v>71.3837463735382</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330887</v>
+        <v>82.92444508330938</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712466</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330887</v>
+        <v>82.92444508330915</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712467</v>
+        <v>591.3628276712462</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330887</v>
+        <v>82.92444508330938</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>40.04720797693545</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836456</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>88.385737226207</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.508445457997681</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.97241671447938</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848787</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731851</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.3888609467086</v>
       </c>
       <c r="T4" t="n">
-        <v>163.3899136669487</v>
+        <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>105.1596427759687</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>104.3148309238027</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>70.61774212654421</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3794197654776</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>96.68503059263367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>152.6360473234759</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27898,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>111.3108523650528</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>1.240230835720535</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.0508528178824</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672557</v>
+        <v>1.231597659672556</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212158</v>
+        <v>12.61309953212156</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452632</v>
+        <v>47.48116877452625</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676338</v>
+        <v>104.5303118676337</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015732</v>
+        <v>156.663840801573</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787773</v>
+        <v>194.355347678777</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589791</v>
+        <v>216.2577725589788</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095238</v>
+        <v>219.7570494095235</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811548</v>
+        <v>207.5103501811545</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579885</v>
+        <v>177.1052829579882</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.998691770965</v>
+        <v>132.9986917709648</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940636</v>
+        <v>77.36434648940623</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978843</v>
+        <v>28.06503166978839</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216623</v>
+        <v>5.391318755216615</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380457</v>
+        <v>0.09852781277380443</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540485</v>
+        <v>0.6589628421540475</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014101</v>
+        <v>6.364193765014092</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784773</v>
+        <v>22.68797504784769</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403667</v>
+        <v>62.25753764403658</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683579</v>
+        <v>106.4080480683578</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966499</v>
+        <v>143.0787521966497</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247341</v>
+        <v>166.9661552247339</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302321</v>
+        <v>171.3852525302319</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382924</v>
+        <v>156.7840232382922</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723814</v>
+        <v>125.8330009723813</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338347</v>
+        <v>84.11602876338334</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163471</v>
+        <v>40.91349997163466</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422103</v>
+        <v>12.23994577422101</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945484</v>
+        <v>2.65608268394548</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276637</v>
+        <v>0.04335281856276631</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654159</v>
+        <v>0.5524523108654151</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967066</v>
+        <v>4.911803272967058</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584361</v>
+        <v>16.61374767584358</v>
       </c>
       <c r="J4" t="n">
-        <v>39.0583783781849</v>
+        <v>39.05837837818485</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509105</v>
+        <v>64.18491393509095</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448195</v>
+        <v>82.13459174448182</v>
       </c>
       <c r="M4" t="n">
-        <v>86.5994108750215</v>
+        <v>86.59941087502138</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361412</v>
+        <v>84.54027044361399</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395901</v>
+        <v>78.08662299395888</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230446</v>
+        <v>66.81659585230436</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437588</v>
+        <v>46.26034759437581</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400315</v>
+        <v>24.84026481400311</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263654</v>
+        <v>9.62773709026364</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515868</v>
+        <v>2.360478055515864</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0301337624108409</v>
+        <v>0.03013376241084086</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31850,7 +31852,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O12" t="n">
         <v>557.7086478970249</v>
@@ -32090,13 +32092,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32324,7 +32326,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33026,7 +33028,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33281,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33500,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33734,7 +33736,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33743,7 +33745,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33974,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987504</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34457,7 +34459,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.5810225130213</v>
+        <v>92.58102251302114</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277574</v>
+        <v>260.7194023277572</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592405</v>
+        <v>376.2501472592402</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245389</v>
+        <v>435.4250728245386</v>
       </c>
       <c r="N2" t="n">
-        <v>427.690910224917</v>
+        <v>427.6909102249167</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222134</v>
+        <v>358.2123200222131</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742016</v>
+        <v>267.6709953742013</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564202</v>
+        <v>123.00799255642</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777882</v>
+        <v>4.866739163763159</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065775</v>
+        <v>233.0318461065774</v>
       </c>
       <c r="L3" t="n">
-        <v>164.5089681530088</v>
+        <v>375.3647177202347</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527157</v>
+        <v>490.5371850527155</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904524</v>
+        <v>519.3859147904521</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705775</v>
+        <v>408.0500980705773</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979884</v>
+        <v>310.3213621979882</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.211542413211</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920819</v>
+        <v>41.91542210920809</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047981</v>
+        <v>109.724617004798</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368621</v>
+        <v>126.183287836862</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228427</v>
+        <v>128.6724428228426</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079987</v>
+        <v>102.6717509079986</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719795</v>
+        <v>64.09515511719785</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,7 +35254,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>625.6491519212395</v>
+        <v>867.4697571238447</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222472</v>
@@ -35498,7 +35500,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525805</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35653,13 +35655,13 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>571.7909105282663</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>641.3060585282451</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
@@ -35738,13 +35740,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357559</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>625.0927807508301</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
         <v>988.434649323059</v>
@@ -35902,10 +35904,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,7 +35974,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>507.3053774831317</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>835.0060136122281</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>856.4357419408416</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>866.0091179130005</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>631.5249572352684</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36832,19 +36834,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>473.4412765525311</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>733.0399850207745</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36929,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>682.3589740116448</v>
       </c>
       <c r="M32" t="n">
-        <v>923.7357052057338</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
         <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37092,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>641.9264671553716</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>897.0044190605962</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636241</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597767</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37391,7 +37393,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37543,19 +37545,19 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>738.9057171608832</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M38" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509644</v>
+        <v>575.5896386552631</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193716</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37780,19 +37782,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>357.8944721725923</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>980.3904738973145</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127288</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>684.7056784113264</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>962.7208389335791</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38035,7 +38037,7 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38105,7 +38107,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2996571.058709247</v>
+        <v>2990830.94400103</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359933</v>
+        <v>6663746.095359934</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>180.500431975787</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174345</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>129.3187935827077</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2471250950627</v>
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>144.9366201066411</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>11.82384086129227</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356738</v>
+        <v>66.70865780356726</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100848</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848793</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731858</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>181.1292528181113</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>69.35489924701487</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>68.90297685032057</v>
       </c>
       <c r="I5" t="n">
-        <v>81.31357411831704</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>94.65568569260671</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>283.0332829292294</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>63.10486044391875</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.88251911919378</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>80.00124118081764</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>149.8387407808036</v>
       </c>
     </row>
     <row r="14">
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396191</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>97.28002421814095</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>142.6955872305729</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.9951719589025</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>35.04027315184464</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>67.58996595590303</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>47.37347156399203</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>24.88166537968446</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.0900968852901</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>142.7077357835977</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>146.5198614928384</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>53.48632037096576</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>7.730549048946741</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>52.46993471496214</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983812</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>183.7932833478479</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3322,13 +3322,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174126</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>139.7497324335284</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.8333851501387</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,16 +3717,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>44.17970120049733</v>
+        <v>240.8213966086076</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>130.1364559017969</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>232.4753817320655</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3994,7 +3994,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -4033,7 +4033,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>15.11174121957046</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.8840312471381</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1041.189739742037</v>
+        <v>1427.83479322781</v>
       </c>
       <c r="C2" t="n">
-        <v>1041.189739742037</v>
+        <v>1058.872276287398</v>
       </c>
       <c r="D2" t="n">
-        <v>1041.189739742037</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="E2" t="n">
-        <v>1041.189739742037</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="F2" t="n">
-        <v>630.2038349524291</v>
+        <v>465.5627028353791</v>
       </c>
       <c r="G2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I2" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015907</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060704</v>
+        <v>397.0764468060719</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927185</v>
+        <v>769.5640925927207</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689012</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811679</v>
+        <v>1624.048915811684</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263367</v>
+        <v>1978.679112633676</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054129</v>
+        <v>2243.673398054136</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804436</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="S2" t="n">
-        <v>2109.431301222156</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="T2" t="n">
-        <v>1978.806257199219</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="U2" t="n">
-        <v>1725.021282355721</v>
+        <v>2111.666335841494</v>
       </c>
       <c r="V2" t="n">
-        <v>1393.958395012151</v>
+        <v>1780.603448497924</v>
       </c>
       <c r="W2" t="n">
-        <v>1041.189739742037</v>
+        <v>1427.83479322781</v>
       </c>
       <c r="X2" t="n">
-        <v>1041.189739742037</v>
+        <v>1427.83479322781</v>
       </c>
       <c r="Y2" t="n">
-        <v>1041.189739742037</v>
+        <v>1427.83479322781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>811.8700116192879</v>
+        <v>703.4974363982253</v>
       </c>
       <c r="C3" t="n">
-        <v>811.8700116192879</v>
+        <v>529.0444071170983</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>380.1099974558471</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>368.1667238585821</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435657</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J3" t="n">
-        <v>52.12709798582523</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="K3" t="n">
-        <v>282.8286256313368</v>
+        <v>130.159198642261</v>
       </c>
       <c r="L3" t="n">
-        <v>654.4396961743691</v>
+        <v>501.7702691852941</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.071509376558</v>
+        <v>987.4020823874833</v>
       </c>
       <c r="N3" t="n">
-        <v>1654.263565019105</v>
+        <v>1501.594138030032</v>
       </c>
       <c r="O3" t="n">
-        <v>2058.233162108977</v>
+        <v>1905.563735119904</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.451310684985</v>
+        <v>2212.781883695913</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885987</v>
+        <v>2365.451310684992</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926778</v>
+        <v>2204.397547725783</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087509</v>
+        <v>2004.893864886514</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549719</v>
+        <v>1776.714037348724</v>
       </c>
       <c r="V3" t="n">
-        <v>1481.719167317976</v>
+        <v>1541.561929116982</v>
       </c>
       <c r="W3" t="n">
-        <v>1227.481810589775</v>
+        <v>1287.32457238878</v>
       </c>
       <c r="X3" t="n">
-        <v>1019.630310384242</v>
+        <v>1079.473072183247</v>
       </c>
       <c r="Y3" t="n">
-        <v>811.8700116192879</v>
+        <v>871.7127734182934</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.158320899041</v>
+        <v>363.1351566395171</v>
       </c>
       <c r="C4" t="n">
-        <v>102.158320899041</v>
+        <v>194.1989737116102</v>
       </c>
       <c r="D4" t="n">
-        <v>102.158320899041</v>
+        <v>194.1989737116102</v>
       </c>
       <c r="E4" t="n">
-        <v>102.158320899041</v>
+        <v>194.1989737116102</v>
       </c>
       <c r="F4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="G4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="H4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="I4" t="n">
-        <v>102.158320899041</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="J4" t="n">
-        <v>47.3090262136997</v>
+        <v>47.30902621369984</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181572</v>
+        <v>88.8052941018162</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365657</v>
+        <v>197.4326649365666</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950591</v>
+        <v>322.3541198950604</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896732</v>
+        <v>449.739838289675</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885918</v>
+        <v>551.3848716885941</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546177</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="Q4" t="n">
-        <v>574.5343321664171</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="R4" t="n">
-        <v>574.5343321664171</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="S4" t="n">
-        <v>574.5343321664171</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="T4" t="n">
-        <v>574.5343321664171</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="U4" t="n">
-        <v>391.5754909360016</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="V4" t="n">
-        <v>391.5754909360016</v>
+        <v>614.8390752546203</v>
       </c>
       <c r="W4" t="n">
-        <v>102.158320899041</v>
+        <v>544.7836214697568</v>
       </c>
       <c r="X4" t="n">
-        <v>102.158320899041</v>
+        <v>544.7836214697568</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.158320899041</v>
+        <v>544.7836214697568</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.737983561872</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C5" t="n">
-        <v>946.7754666214607</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D5" t="n">
-        <v>946.7754666214607</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="E5" t="n">
-        <v>560.9872140232164</v>
+        <v>1105.957637232171</v>
       </c>
       <c r="F5" t="n">
-        <v>554.041713274013</v>
+        <v>694.9717324425633</v>
       </c>
       <c r="G5" t="n">
-        <v>136.0779051721998</v>
+        <v>277.0079243407502</v>
       </c>
       <c r="H5" t="n">
-        <v>136.0779051721998</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1702.337823625994</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4649,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4670,19 +4670,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>632.5171804765284</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>632.5171804765284</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>632.5171804765284</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>632.5171804765284</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1732.515907621104</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>757.7989949011973</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>339.8351867993841</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2578.37811827203</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2359.743451244093</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2105.981665882184</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2105.981665882184</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2105.981665882184</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1732.515907621104</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1732.515907621104</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>551.8181649141599</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>551.8181649141599</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>551.8181649141599</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>551.8181649141599</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>699.9648234799758</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>551.8181649141599</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>551.8181649141599</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.8181649141599</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5041,28 +5041,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427193</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867998</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750059</v>
+        <v>3573.860007589389</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5132,7 +5132,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1104.146255802442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C13" t="n">
-        <v>935.2100728745354</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>785.0934334621996</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>637.1803398798065</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>490.2903923818961</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>322.5875557566151</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>176.3703689744729</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.576850674229</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.576850674229</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V13" t="n">
-        <v>1734.576850674229</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W13" t="n">
-        <v>1734.576850674229</v>
+        <v>811.5418683145529</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.587299776212</v>
+        <v>583.5523174165355</v>
       </c>
       <c r="Y13" t="n">
-        <v>1285.794720632682</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,7 +5266,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5275,52 +5275,52 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972662</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4302.335344088782</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
         <v>2760.816196754298</v>
@@ -5354,7 +5354,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390117</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
@@ -5463,25 +5463,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1858.080815379308</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1858.080815379308</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1568.977948504952</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.240599230347</v>
+        <v>1568.977948504952</v>
       </c>
       <c r="W16" t="n">
-        <v>1667.240599230347</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,22 +5515,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>351.3014367967928</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866391</v>
+        <v>799.5135445647354</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139994</v>
+        <v>1664.03236021809</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969822</v>
+        <v>2642.582663047919</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196469</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075806</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P17" t="n">
         <v>4405.689038432984</v>
@@ -5551,7 +5551,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,13 +5594,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1120.662598458018</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="C19" t="n">
-        <v>951.7264155301116</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D19" t="n">
-        <v>801.6097761177758</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E19" t="n">
-        <v>653.6966825353827</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
         <v>192.8867116300491</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1798.240315977481</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1576.473700547007</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1576.473700547007</v>
       </c>
       <c r="V19" t="n">
-        <v>1445.473983799873</v>
+        <v>1576.473700547007</v>
       </c>
       <c r="W19" t="n">
-        <v>1156.056813762912</v>
+        <v>1287.056530510047</v>
       </c>
       <c r="X19" t="n">
-        <v>1156.056813762912</v>
+        <v>1059.066979612029</v>
       </c>
       <c r="Y19" t="n">
-        <v>1156.056813762912</v>
+        <v>838.2744004684992</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5761,37 +5761,37 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3362.809616117416</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3865.782086996753</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,73 +5807,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
         <v>1138.808109517387</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>849.4617675965557</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>849.4617675965557</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5937,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838521</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858347</v>
+        <v>1251.902811570325</v>
       </c>
       <c r="Y22" t="n">
-        <v>260.9043113423046</v>
+        <v>1031.110232426795</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075806</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.8867116300491</v>
+        <v>824.3287722635405</v>
       </c>
       <c r="C25" t="n">
-        <v>192.8867116300491</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D25" t="n">
-        <v>192.8867116300491</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E25" t="n">
-        <v>192.8867116300491</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G25" t="n">
         <v>192.8867116300491</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1709.443855341215</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>1454.759367135328</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>1454.759367135328</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>1226.76981623731</v>
       </c>
       <c r="Y25" t="n">
-        <v>374.5351764602888</v>
+        <v>1005.97723709378</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1963.918173296943</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2497.450077968867</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N26" t="n">
-        <v>3044.228895027649</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906986</v>
+        <v>3944.053400686432</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353932</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6302,28 +6302,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3673.368275229806</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C28" t="n">
-        <v>3529.219047165566</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D28" t="n">
-        <v>3379.10240775323</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E28" t="n">
-        <v>3231.189314170837</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>3231.189314170837</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>3063.486477545556</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210349</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159225</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607721</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.09595020727</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913135</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833548</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267207</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.051722419722</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>4688.22126517725</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>4688.22126517725</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>4688.22126517725</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>4399.118398302893</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>4144.433910097006</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W28" t="n">
-        <v>3855.016740060046</v>
+        <v>761.2732940845638</v>
       </c>
       <c r="X28" t="n">
-        <v>3855.016740060046</v>
+        <v>761.2732940845638</v>
       </c>
       <c r="Y28" t="n">
-        <v>3855.016740060046</v>
+        <v>540.4807149410336</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551629</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>753.1470291944256</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1617.66584484778</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
         <v>4653.975400188666</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>582.3166934139181</v>
+        <v>529.525731183237</v>
       </c>
       <c r="C31" t="n">
-        <v>413.3805104860112</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1812.486422628932</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.657581931529</v>
+        <v>1590.719807198459</v>
       </c>
       <c r="U31" t="n">
-        <v>1756.848946528553</v>
+        <v>1301.616940324102</v>
       </c>
       <c r="V31" t="n">
-        <v>1502.164458322666</v>
+        <v>1046.932452118215</v>
       </c>
       <c r="W31" t="n">
-        <v>1212.747288285705</v>
+        <v>757.5152820812543</v>
       </c>
       <c r="X31" t="n">
-        <v>984.7577373876879</v>
+        <v>529.525731183237</v>
       </c>
       <c r="Y31" t="n">
-        <v>763.9651582441578</v>
+        <v>529.525731183237</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6697,7 +6697,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,31 +6706,31 @@
         <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814248</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644076</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870723</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.97392775006</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604875</v>
@@ -6776,28 +6776,28 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3848.480841330645</v>
+        <v>529.525731183237</v>
       </c>
       <c r="C34" t="n">
-        <v>3679.544658402738</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="D34" t="n">
-        <v>3529.428018990402</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="E34" t="n">
-        <v>3381.514925408009</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F34" t="n">
-        <v>3328.514991352492</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G34" t="n">
-        <v>3160.81215472721</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>3014.594967945068</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210349</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159225</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.938904607721</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.09595020727</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913135</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833548</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267207</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419722</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419722</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>4586.365838246548</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T34" t="n">
-        <v>4586.365838246548</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U34" t="n">
-        <v>4297.262971372192</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>4297.262971372192</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>4297.262971372192</v>
+        <v>978.3078612247845</v>
       </c>
       <c r="X34" t="n">
-        <v>4069.273420474175</v>
+        <v>750.3183103267671</v>
       </c>
       <c r="Y34" t="n">
-        <v>3848.480841330645</v>
+        <v>529.525731183237</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
@@ -6925,13 +6925,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -6946,7 +6946,7 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
         <v>2979.169639353395</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>680.9693001177184</v>
+        <v>781.8112129900683</v>
       </c>
       <c r="C37" t="n">
-        <v>539.8079542252655</v>
+        <v>781.8112129900683</v>
       </c>
       <c r="D37" t="n">
-        <v>389.6913148129298</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="E37" t="n">
-        <v>241.7782212305366</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>241.7782212305366</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U37" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V37" t="n">
-        <v>1198.376021052696</v>
+        <v>1701.658977898816</v>
       </c>
       <c r="W37" t="n">
-        <v>908.9588510157357</v>
+        <v>1412.241807861855</v>
       </c>
       <c r="X37" t="n">
-        <v>680.9693001177184</v>
+        <v>1184.252256963838</v>
       </c>
       <c r="Y37" t="n">
-        <v>680.9693001177184</v>
+        <v>963.459677820308</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7174,25 +7174,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.328657580449</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807095</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O38" t="n">
-        <v>4010.914672075806</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
         <v>4653.975400188666</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>578.4172407837245</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.265005692472</v>
+        <v>1209.806573290293</v>
       </c>
       <c r="V40" t="n">
-        <v>1498.265005692472</v>
+        <v>955.1220850844059</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.847835655512</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="X40" t="n">
-        <v>980.8582847574944</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>760.0657056139643</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7390,22 +7390,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,22 +7414,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.189928969822</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N41" t="n">
-        <v>3507.942201196469</v>
+        <v>2730.49472550168</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7450,7 +7450,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7496,19 +7496,19 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.3640755286979</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1633.206616374159</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1344.103749499802</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V43" t="n">
-        <v>1089.419261293915</v>
+        <v>963.5524031415191</v>
       </c>
       <c r="W43" t="n">
-        <v>800.0020912569549</v>
+        <v>674.1352331045584</v>
       </c>
       <c r="X43" t="n">
-        <v>572.0125403589376</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y43" t="n">
-        <v>572.0125403589376</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
@@ -7636,10 +7636,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7651,25 +7651,25 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N44" t="n">
-        <v>3044.228895027648</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7739,13 +7739,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.657581931529</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U46" t="n">
-        <v>1475.554715057173</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V46" t="n">
-        <v>1220.870226851286</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W46" t="n">
-        <v>931.4530568143252</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X46" t="n">
-        <v>703.4635059163079</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y46" t="n">
-        <v>520.752363242431</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>69.44682818639328</v>
+        <v>64.58008902262978</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>115.1204337631331</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.86574532263818</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>315.1679217109335</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>229.154367407183</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,16 +8941,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400261</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>104.3976710547489</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>183.0848540075445</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9175,13 +9175,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>282.7041781993166</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>124.0833809162826</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476844</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>410.4190035206686</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>133.2530576400267</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>136.2499899971307</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>226.7688596193129</v>
+        <v>132.9990175570131</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>344.7025836476846</v>
       </c>
       <c r="N35" t="n">
-        <v>344.7025836476849</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,13 +10837,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>67.53663776704411</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>103.7862464855155</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11062,25 +11062,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>441.4693580670879</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>251.1867816683989</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>410.4190035206678</v>
+        <v>431.6494533859218</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>16.35117922902047</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>68.74591257129114</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>92.48900111330094</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -23715,10 +23715,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>83.01406815846428</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>144.7917070300927</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>122.1790593755389</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>101.2420014542203</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,19 +24177,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,25 +24414,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>261.3301728259284</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.4945564668047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>24.53908531503015</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>140.0031368437526</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>136.2827049604761</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>278.4812891566662</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>92.95111330796911</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>102.7297149887431</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>27.49708866509945</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.78208786807366</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>242.0321370051155</v>
+        <v>45.39044159700526</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>89.41249337437227</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.73645647354738</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>271.1000969860424</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.70062210495666</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>745987.2574976874</v>
+        <v>745987.2574976875</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>745987.2574976874</v>
+        <v>745987.2574976875</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846401</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="F2" t="n">
-        <v>675039.0377078711</v>
+        <v>675039.0377078714</v>
       </c>
       <c r="G2" t="n">
-        <v>675039.0377078712</v>
+        <v>675039.0377078719</v>
       </c>
       <c r="H2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078713</v>
       </c>
       <c r="I2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="J2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>675039.0377078715</v>
       </c>
-      <c r="K2" t="n">
-        <v>675039.0377078711</v>
-      </c>
       <c r="L2" t="n">
-        <v>675039.0377078714</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="M2" t="n">
-        <v>675039.0377078716</v>
+        <v>675039.0377078715</v>
       </c>
       <c r="N2" t="n">
         <v>675039.0377078714</v>
       </c>
       <c r="O2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="P2" t="n">
         <v>675039.0377078716</v>
-      </c>
-      <c r="P2" t="n">
-        <v>675039.0377078715</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106463</v>
+        <v>493391.6844106485</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447073</v>
+        <v>91792.63957446863</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832157</v>
+        <v>154726.535683216</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220111</v>
+        <v>21342.0985822007</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861109</v>
+        <v>244465.9635861104</v>
       </c>
       <c r="C4" t="n">
         <v>218780.324998335</v>
@@ -26426,7 +26426,7 @@
         <v>218780.3249983351</v>
       </c>
       <c r="E4" t="n">
-        <v>32032.95503079773</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="F4" t="n">
         <v>32032.95503079771</v>
@@ -26438,28 +26438,28 @@
         <v>32032.95503079769</v>
       </c>
       <c r="I4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32032.95503079772</v>
+      </c>
+      <c r="L4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>32032.95503079773</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>32032.9550307977</v>
       </c>
-      <c r="L4" t="n">
-        <v>32032.95503079773</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32032.95503079771</v>
-      </c>
-      <c r="N4" t="n">
-        <v>32032.95503079772</v>
-      </c>
       <c r="O4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.95503079772</v>
+        <v>32032.9550307977</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140112</v>
+        <v>76261.10613140126</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,7 +26484,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26493,16 +26493,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116233.2497435174</v>
+        <v>-116233.24974352</v>
       </c>
       <c r="C6" t="n">
-        <v>304453.461748426</v>
+        <v>304453.4617484279</v>
       </c>
       <c r="D6" t="n">
-        <v>396246.1013228967</v>
+        <v>396246.1013228965</v>
       </c>
       <c r="E6" t="n">
-        <v>-180754.8495700464</v>
+        <v>-181426.8044723044</v>
       </c>
       <c r="F6" t="n">
-        <v>546622.5644233597</v>
+        <v>545950.6095211022</v>
       </c>
       <c r="G6" t="n">
-        <v>546622.5644233598</v>
+        <v>545950.6095211026</v>
       </c>
       <c r="H6" t="n">
-        <v>546622.5644233604</v>
+        <v>545950.609521102</v>
       </c>
       <c r="I6" t="n">
-        <v>546622.56442336</v>
+        <v>545950.609521102</v>
       </c>
       <c r="J6" t="n">
-        <v>391896.0287401445</v>
+        <v>391224.0738378862</v>
       </c>
       <c r="K6" t="n">
-        <v>525280.4658411586</v>
+        <v>524608.5109389016</v>
       </c>
       <c r="L6" t="n">
-        <v>546622.5644233599</v>
+        <v>545950.6095211023</v>
       </c>
       <c r="M6" t="n">
-        <v>416980.2495844156</v>
+        <v>416308.2946821573</v>
       </c>
       <c r="N6" t="n">
-        <v>546622.56442336</v>
+        <v>545950.6095211022</v>
       </c>
       <c r="O6" t="n">
-        <v>546622.5644233603</v>
+        <v>545950.609521102</v>
       </c>
       <c r="P6" t="n">
-        <v>546622.5644233602</v>
+        <v>545950.6095211024</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435484</v>
+        <v>306.3599178435501</v>
       </c>
       <c r="C3" t="n">
-        <v>71.3837463735382</v>
+        <v>71.38374637353655</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330938</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712466</v>
+        <v>591.3628276712479</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330915</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712462</v>
+        <v>591.3628276712481</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330938</v>
+        <v>82.92444508330755</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>174.1826096448959</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>72.50477145174303</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
-        <v>88.385737226207</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.508445457997681</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.8212395941087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100826</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.4385270475933</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848771</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731833</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631664</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27593,13 +27593,13 @@
         <v>225.5851113727656</v>
       </c>
       <c r="U4" t="n">
-        <v>105.1596427759687</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>217.1680990895761</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>255.0197959140366</v>
       </c>
       <c r="I5" t="n">
-        <v>70.61774212654421</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>130.3794197654776</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,16 +27864,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>40.88948983512773</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>111.3108523650528</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.240230835720535</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>197.1993249768937</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>4.820566934132988e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672556</v>
+        <v>1.231597659672562</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212156</v>
+        <v>12.61309953212163</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452625</v>
+        <v>47.4811687745265</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676337</v>
+        <v>104.5303118676342</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801573</v>
+        <v>156.6638408015738</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678777</v>
+        <v>194.355347678778</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589788</v>
+        <v>216.25777255898</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095235</v>
+        <v>219.7570494095246</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811545</v>
+        <v>207.5103501811556</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579882</v>
+        <v>177.1052829579892</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709648</v>
+        <v>132.9986917709655</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940623</v>
+        <v>77.36434648940666</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978839</v>
+        <v>28.06503166978854</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216615</v>
+        <v>5.391318755216644</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380443</v>
+        <v>0.09852781277380496</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540475</v>
+        <v>0.6589628421540511</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014092</v>
+        <v>6.364193765014126</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784769</v>
+        <v>22.68797504784781</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403658</v>
+        <v>62.25753764403692</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683578</v>
+        <v>106.4080480683583</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966497</v>
+        <v>143.0787521966505</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247339</v>
+        <v>166.9661552247348</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302319</v>
+        <v>171.3852525302328</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382922</v>
+        <v>156.784023238293</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723813</v>
+        <v>125.8330009723819</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338334</v>
+        <v>84.1160287633838</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163466</v>
+        <v>40.91349997163488</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422101</v>
+        <v>12.23994577422107</v>
       </c>
       <c r="T3" t="n">
-        <v>2.65608268394548</v>
+        <v>2.656082683945495</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276631</v>
+        <v>0.04335281856276654</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654151</v>
+        <v>0.5524523108654181</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967058</v>
+        <v>4.911803272967084</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584358</v>
+        <v>16.61374767584367</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818485</v>
+        <v>39.05837837818506</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509095</v>
+        <v>64.18491393509129</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448182</v>
+        <v>82.13459174448226</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502138</v>
+        <v>86.59941087502185</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361399</v>
+        <v>84.54027044361445</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395888</v>
+        <v>78.08662299395931</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230436</v>
+        <v>66.81659585230473</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437581</v>
+        <v>46.26034759437606</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400311</v>
+        <v>24.84026481400325</v>
       </c>
       <c r="S4" t="n">
-        <v>9.62773709026364</v>
+        <v>9.627737090263693</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515864</v>
+        <v>2.360478055515877</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084086</v>
+        <v>0.03013376241084102</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31852,10 +31852,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P12" t="n">
         <v>447.6103584002926</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33745,7 +33745,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233481</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33976,7 +33976,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.7086478970249</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302114</v>
+        <v>92.58102251302171</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277572</v>
+        <v>260.719402327758</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592402</v>
+        <v>376.2501472592412</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245386</v>
+        <v>435.4250728245397</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249167</v>
+        <v>427.6909102249178</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222131</v>
+        <v>358.2123200222142</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742013</v>
+        <v>267.6709953742023</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.00799255642</v>
+        <v>123.0079925564207</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.866739163763159</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065774</v>
+        <v>83.6870428571325</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202347</v>
+        <v>375.3647177202355</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527155</v>
+        <v>490.5371850527164</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904521</v>
+        <v>519.3859147904531</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705773</v>
+        <v>408.0500980705781</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979882</v>
+        <v>310.3213621979888</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.2115424132114</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920809</v>
+        <v>41.91542210920844</v>
       </c>
       <c r="L4" t="n">
-        <v>109.724617004798</v>
+        <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836862</v>
+        <v>126.1832878368624</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228426</v>
+        <v>128.672442822843</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079986</v>
+        <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719785</v>
+        <v>64.09515511719822</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>867.4697571238447</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>627.9163536265546</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
@@ -35652,7 +35652,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
         <v>988.434649323059</v>
@@ -35661,16 +35661,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282451</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>355.1919758584683</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>258.3236387357559</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>520.276140562945</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36129,22 +36129,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>835.0060136122281</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>676.3852163291939</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359034</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>866.0091179130005</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>532.0150438593984</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36676,7 +36676,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>473.4412765525311</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -37074,25 +37074,25 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>682.3589740116448</v>
+        <v>588.5891319493451</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>883.6236994779111</v>
       </c>
       <c r="N35" t="n">
-        <v>897.0044190605962</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37393,7 +37393,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013298</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>988.434649323059</v>
@@ -37557,13 +37557,13 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>575.5896386552631</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>502.5482327048871</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37624,7 +37624,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M41" t="n">
-        <v>980.3904738973145</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>759.2397825566179</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>962.7208389335791</v>
+        <v>983.951288798833</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38037,10 +38037,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525805</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2990830.94400103</v>
+        <v>2994236.435125479</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>806345.8827095102</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>180.500431975787</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0711398554625</v>
+        <v>262.2677963443354</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>11.82384086129227</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -758,7 +758,7 @@
         <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356726</v>
+        <v>66.70865780356725</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100823</v>
       </c>
       <c r="S3" t="n">
         <v>159.4432253296168</v>
@@ -794,7 +794,7 @@
         <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>20.83245548729662</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>99.55849178710216</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>69.35489924701487</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>313.4020972507757</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>68.90297685032057</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>54.701915652952</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>289.9093286709409</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>283.0332829292294</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>28.51033041214364</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>28.51033041214341</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8387407808036</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.56505621326029</v>
       </c>
       <c r="S16" t="n">
-        <v>97.28002421814095</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.9951719589025</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>67.58996595590303</v>
+        <v>84.9783805360948</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>147.9212967840867</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>47.37347156399203</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>103.9014424860427</v>
       </c>
       <c r="U25" t="n">
-        <v>24.88166537968446</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>201.3600324842803</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>146.5198614928384</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>53.48632037096576</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>120.635366662023</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,10 +3246,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>183.7932833478479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3322,13 +3322,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589016</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174126</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>126.8333851501387</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>98.50090852733688</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>127.0598196324646</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>240.8213966086076</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>232.4753817320655</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>206.152950995878</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>37.38100496017431</v>
       </c>
       <c r="U46" t="n">
-        <v>15.11174121957046</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1427.83479322781</v>
+        <v>1780.603448497925</v>
       </c>
       <c r="C2" t="n">
-        <v>1058.872276287398</v>
+        <v>1411.640931557513</v>
       </c>
       <c r="D2" t="n">
-        <v>876.5486076249867</v>
+        <v>1053.375232950763</v>
       </c>
       <c r="E2" t="n">
-        <v>876.5486076249867</v>
+        <v>1053.375232950763</v>
       </c>
       <c r="F2" t="n">
-        <v>465.5627028353791</v>
+        <v>642.3893281611554</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369984</v>
+        <v>377.4723621567762</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J2" t="n">
         <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060719</v>
+        <v>397.0764468060722</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927207</v>
+        <v>769.5640925927214</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689015</v>
+        <v>1200.634914689016</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811684</v>
+        <v>1624.048915811685</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633676</v>
+        <v>1978.679112633677</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054136</v>
+        <v>2243.673398054137</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="S2" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="T2" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="U2" t="n">
-        <v>2111.666335841494</v>
+        <v>2111.666335841496</v>
       </c>
       <c r="V2" t="n">
-        <v>1780.603448497924</v>
+        <v>1780.603448497925</v>
       </c>
       <c r="W2" t="n">
-        <v>1427.83479322781</v>
+        <v>1780.603448497925</v>
       </c>
       <c r="X2" t="n">
-        <v>1427.83479322781</v>
+        <v>1780.603448497925</v>
       </c>
       <c r="Y2" t="n">
-        <v>1427.83479322781</v>
+        <v>1780.603448497925</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>703.4974363982253</v>
+        <v>850.791617806416</v>
       </c>
       <c r="C3" t="n">
-        <v>529.0444071170983</v>
+        <v>676.338588525289</v>
       </c>
       <c r="D3" t="n">
-        <v>380.1099974558471</v>
+        <v>527.4041788640377</v>
       </c>
       <c r="E3" t="n">
         <v>368.1667238585821</v>
@@ -4406,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369984</v>
+        <v>108.2048630683012</v>
       </c>
       <c r="K3" t="n">
-        <v>130.159198642261</v>
+        <v>338.9063907138134</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852941</v>
+        <v>710.5174612568464</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874833</v>
+        <v>1196.149274459036</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030032</v>
+        <v>1501.594138030033</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119904</v>
+        <v>1905.563735119905</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695913</v>
+        <v>2212.781883695914</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684992</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R3" t="n">
-        <v>2365.451310684992</v>
+        <v>2305.608548885995</v>
       </c>
       <c r="S3" t="n">
-        <v>2204.397547725783</v>
+        <v>2144.554785926786</v>
       </c>
       <c r="T3" t="n">
-        <v>2004.893864886514</v>
+        <v>1945.051103087518</v>
       </c>
       <c r="U3" t="n">
-        <v>1776.714037348724</v>
+        <v>1924.008218756915</v>
       </c>
       <c r="V3" t="n">
-        <v>1541.561929116982</v>
+        <v>1688.856110525172</v>
       </c>
       <c r="W3" t="n">
-        <v>1287.32457238878</v>
+        <v>1434.618753796971</v>
       </c>
       <c r="X3" t="n">
-        <v>1079.473072183247</v>
+        <v>1226.767253591438</v>
       </c>
       <c r="Y3" t="n">
-        <v>871.7127734182934</v>
+        <v>1019.006954826484</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.1351566395171</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="C4" t="n">
-        <v>194.1989737116102</v>
+        <v>445.9028923267138</v>
       </c>
       <c r="D4" t="n">
-        <v>194.1989737116102</v>
+        <v>295.786252914378</v>
       </c>
       <c r="E4" t="n">
-        <v>194.1989737116102</v>
+        <v>147.8731593319849</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369984</v>
+        <v>147.8731593319849</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369984</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K4" t="n">
-        <v>88.8052941018162</v>
+        <v>88.80529410181626</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365666</v>
+        <v>197.4326649365667</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950604</v>
+        <v>322.3541198950606</v>
       </c>
       <c r="N4" t="n">
-        <v>449.739838289675</v>
+        <v>449.7398382896753</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885941</v>
+        <v>551.3848716885943</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546203</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546203</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546203</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546203</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546203</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546203</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546203</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="W4" t="n">
-        <v>544.7836214697568</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="X4" t="n">
-        <v>544.7836214697568</v>
+        <v>614.8390752546206</v>
       </c>
       <c r="Y4" t="n">
-        <v>544.7836214697568</v>
+        <v>614.8390752546206</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1860.708406770827</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.745889830415</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1491.745889830415</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1105.957637232171</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>694.9717324425633</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>277.0079243407502</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4649,40 +4649,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>184.0273259635867</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4792,10 +4792,10 @@
         <v>764.7444956504007</v>
       </c>
       <c r="F8" t="n">
-        <v>757.7989949011973</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>339.8351867993841</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4874,7 +4874,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,31 +4883,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4968,40 +4968,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X10" t="n">
         <v>699.3306706588146</v>
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5047,16 +5047,16 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>3070.887536710052</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3573.860007589389</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5132,7 +5132,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431757</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.6435265574</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145529</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>583.5523174165355</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>432.2000540015823</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,25 +5278,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1069.293752345675</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M14" t="n">
-        <v>2047.844055175503</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3027.59632740215</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>3907.560977731604</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4302.335344088782</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5369,13 +5369,13 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>877.1197344942216</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663147</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1876.984823465046</v>
       </c>
       <c r="S16" t="n">
-        <v>1858.080815379308</v>
+        <v>1685.298939291873</v>
       </c>
       <c r="T16" t="n">
-        <v>1858.080815379308</v>
+        <v>1463.532323861399</v>
       </c>
       <c r="U16" t="n">
-        <v>1568.977948504952</v>
+        <v>1463.532323861399</v>
       </c>
       <c r="V16" t="n">
-        <v>1568.977948504952</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="W16" t="n">
-        <v>1279.560778467991</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X16" t="n">
-        <v>1279.560778467991</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y16" t="n">
-        <v>1058.768199324461</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5503,7 +5503,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>799.5135445647354</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1664.03236021809</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M17" t="n">
-        <v>2642.582663047919</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N17" t="n">
-        <v>3189.361480106701</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.6259356382594</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C19" t="n">
-        <v>487.6897527103525</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D19" t="n">
-        <v>487.6897527103525</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E19" t="n">
-        <v>339.7766591279594</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1798.240315977481</v>
+        <v>1870.506718088446</v>
       </c>
       <c r="T19" t="n">
-        <v>1576.473700547007</v>
+        <v>1648.740102657972</v>
       </c>
       <c r="U19" t="n">
-        <v>1576.473700547007</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="V19" t="n">
-        <v>1576.473700547007</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="W19" t="n">
-        <v>1287.056530510047</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="X19" t="n">
-        <v>1059.066979612029</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="Y19" t="n">
-        <v>838.2744004684992</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
@@ -5740,7 +5740,7 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5752,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O20" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,25 +5831,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.4617675965557</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C22" t="n">
-        <v>849.4617675965557</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1479.892362468343</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.892362468343</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.902811570325</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.110232426795</v>
+        <v>391.8664332433621</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.950021746351</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188666</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6083,10 +6083,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>824.3287722635405</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C25" t="n">
-        <v>655.3925893356336</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D25" t="n">
-        <v>655.3925893356336</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E25" t="n">
-        <v>507.4794957532405</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F25" t="n">
-        <v>360.5895482553301</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1761.562056856127</v>
       </c>
       <c r="U25" t="n">
-        <v>1709.443855341215</v>
+        <v>1761.562056856127</v>
       </c>
       <c r="V25" t="n">
-        <v>1454.759367135328</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.759367135328</v>
+        <v>1506.87756865024</v>
       </c>
       <c r="X25" t="n">
-        <v>1226.76981623731</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y25" t="n">
-        <v>1005.97723709378</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,25 +6226,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>2504.619866888351</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807095</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686432</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q26" t="n">
         <v>4719.034655862919</v>
@@ -6259,7 +6259,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
@@ -6320,10 +6320,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>540.4807149410336</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C28" t="n">
-        <v>540.4807149410336</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D28" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1752.949493898359</v>
       </c>
       <c r="V28" t="n">
-        <v>909.27315417834</v>
+        <v>1498.265005692472</v>
       </c>
       <c r="W28" t="n">
-        <v>761.2732940845638</v>
+        <v>1208.847835655512</v>
       </c>
       <c r="X28" t="n">
-        <v>761.2732940845638</v>
+        <v>980.8582847574944</v>
       </c>
       <c r="Y28" t="n">
-        <v>540.4807149410336</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749765</v>
@@ -6448,16 +6448,16 @@
         <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551629</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6475,16 +6475,16 @@
         <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542187</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3573.860007589389</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4287.215095036335</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>529.525731183237</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1812.486422628932</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1590.719807198459</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1301.616940324102</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1046.932452118215</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W31" t="n">
-        <v>757.5152820812543</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>529.525731183237</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>529.525731183237</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6706,22 +6706,22 @@
         <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.866738172571</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>529.525731183237</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689057</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258583</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384227</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384227</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>978.3078612247845</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>750.3183103267671</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>529.525731183237</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6946,10 +6946,10 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
         <v>3482.142110232732</v>
@@ -6970,13 +6970,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>781.8112129900683</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C37" t="n">
-        <v>781.8112129900683</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1767.017141662901</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1545.250526232427</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104703</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898816</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.241807861855</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.252256963838</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.459677820308</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7177,19 +7177,19 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176192</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1236.699401366028</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M38" t="n">
-        <v>2215.249704195856</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>3195.001976422503</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
         <v>4195.497197679678</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2638710736754</v>
+        <v>392.840469530306</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2638710736754</v>
+        <v>223.9042866023991</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2638710736754</v>
+        <v>223.9042866023991</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>223.9042866023991</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>223.9042866023991</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>223.9042866023991</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7362,22 +7362,22 @@
         <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258583</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.806573290293</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1220850844059</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W40" t="n">
-        <v>665.7049150474453</v>
+        <v>841.6225995718535</v>
       </c>
       <c r="X40" t="n">
-        <v>665.7049150474453</v>
+        <v>613.6330486738361</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.9123359039152</v>
+        <v>392.840469530306</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,13 +7399,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551621</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
@@ -7414,16 +7414,16 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.715908442898</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2730.49472550168</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7450,7 +7450,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>264.4972173763014</v>
+        <v>580.1131475839754</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U43" t="n">
-        <v>1218.236891347406</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>963.5524031415191</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>674.1352331045584</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X43" t="n">
-        <v>446.1456822065411</v>
+        <v>982.5541915577453</v>
       </c>
       <c r="Y43" t="n">
-        <v>446.1456822065411</v>
+        <v>761.7616124142152</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7654,22 +7654,22 @@
         <v>785.6651881176192</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1614.698881814247</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195856</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>3189.361480106701</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3692.333950986038</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7830,13 +7830,13 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258583</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U46" t="n">
         <v>1437.79612418831</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262978</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>115.1204337631331</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>268.4866247763296</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,19 +8695,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>229.154367407183</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>104.3976710547489</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>183.0848540075445</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>124.0833809162826</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>133.2530576400267</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>205.0727796301213</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>185.3870697685878</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570131</v>
+        <v>198.715437429996</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>344.7025836476846</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>103.7862464855155</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11062,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>251.1867816683989</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11302,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>381.8176570184029</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>431.6494533859218</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>68.74591257129114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983812</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>10.36709645678705</v>
       </c>
       <c r="S16" t="n">
-        <v>92.48900111330094</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>122.1790593755389</v>
+        <v>104.7906447953471</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>31.91068339785062</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>101.2420014542203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>115.6475067901265</v>
       </c>
       <c r="U25" t="n">
-        <v>261.3301728259284</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.8518057213326</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>140.0031368437526</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>136.2827049604761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>102.7297149887431</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>21.78208786807366</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>91.26811680410502</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>17.69519528185617</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>45.39044159700526</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>53.73645647354738</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>19.55670439315912</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>182.1679443159949</v>
       </c>
       <c r="U46" t="n">
-        <v>271.1000969860424</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>745987.2574976875</v>
+        <v>745987.2574976874</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>745987.2574976874</v>
+        <v>745987.2574976875</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>697885.5043846401</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="F2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="G2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="H2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="I2" t="n">
+        <v>675039.0377078718</v>
+      </c>
+      <c r="J2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="K2" t="n">
+        <v>675039.0377078712</v>
+      </c>
+      <c r="L2" t="n">
         <v>675039.0377078714</v>
       </c>
-      <c r="F2" t="n">
+      <c r="M2" t="n">
+        <v>675039.0377078713</v>
+      </c>
+      <c r="N2" t="n">
+        <v>675039.0377078715</v>
+      </c>
+      <c r="O2" t="n">
+        <v>675039.0377078716</v>
+      </c>
+      <c r="P2" t="n">
         <v>675039.0377078714</v>
-      </c>
-      <c r="G2" t="n">
-        <v>675039.0377078719</v>
-      </c>
-      <c r="H2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="I2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="J2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="K2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="L2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="M2" t="n">
-        <v>675039.0377078715</v>
-      </c>
-      <c r="N2" t="n">
-        <v>675039.0377078714</v>
-      </c>
-      <c r="O2" t="n">
-        <v>675039.0377078713</v>
-      </c>
-      <c r="P2" t="n">
-        <v>675039.0377078716</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106485</v>
+        <v>493391.6844106488</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446863</v>
+        <v>91792.63957446831</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.535683216</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.0985822007</v>
+        <v>21342.0985822006</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244465.9635861104</v>
+        <v>244465.9635861103</v>
       </c>
       <c r="C4" t="n">
         <v>218780.324998335</v>
@@ -26429,37 +26429,37 @@
         <v>32032.9550307977</v>
       </c>
       <c r="F4" t="n">
-        <v>32032.95503079771</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="G4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.9550307977</v>
       </c>
       <c r="I4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="K4" t="n">
         <v>32032.95503079771</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="M4" t="n">
         <v>32032.95503079772</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.95503079772</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.9550307977</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32032.95503079773</v>
       </c>
       <c r="N4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="O4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="P4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079771</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140126</v>
+        <v>76261.10613140129</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,10 +26484,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-116233.24974352</v>
+        <v>-116233.2497435202</v>
       </c>
       <c r="C6" t="n">
-        <v>304453.4617484279</v>
+        <v>304453.4617484282</v>
       </c>
       <c r="D6" t="n">
-        <v>396246.1013228965</v>
+        <v>396246.1013228964</v>
       </c>
       <c r="E6" t="n">
-        <v>-181426.8044723044</v>
+        <v>-180822.045060272</v>
       </c>
       <c r="F6" t="n">
-        <v>545950.6095211022</v>
+        <v>546555.3689331346</v>
       </c>
       <c r="G6" t="n">
-        <v>545950.6095211026</v>
+        <v>546555.3689331344</v>
       </c>
       <c r="H6" t="n">
-        <v>545950.609521102</v>
+        <v>546555.3689331344</v>
       </c>
       <c r="I6" t="n">
-        <v>545950.609521102</v>
+        <v>546555.3689331346</v>
       </c>
       <c r="J6" t="n">
-        <v>391224.0738378862</v>
+        <v>391828.8332499183</v>
       </c>
       <c r="K6" t="n">
-        <v>524608.5109389016</v>
+        <v>525213.2703509334</v>
       </c>
       <c r="L6" t="n">
-        <v>545950.6095211023</v>
+        <v>546555.3689331342</v>
       </c>
       <c r="M6" t="n">
-        <v>416308.2946821573</v>
+        <v>416913.0540941893</v>
       </c>
       <c r="N6" t="n">
-        <v>545950.6095211022</v>
+        <v>546555.3689331344</v>
       </c>
       <c r="O6" t="n">
-        <v>545950.609521102</v>
+        <v>546555.3689331345</v>
       </c>
       <c r="P6" t="n">
-        <v>545950.6095211024</v>
+        <v>546555.3689331342</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435501</v>
+        <v>306.3599178435502</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435501</v>
+        <v>306.3599178435502</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353655</v>
+        <v>71.38374637353633</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330755</v>
+        <v>82.92444508330718</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712479</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330755</v>
+        <v>82.92444508330718</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712481</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330755</v>
+        <v>82.92444508330718</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>174.1826096448959</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>151.8033435111271</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>162.9947207958794</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174303</v>
+        <v>72.50477145174298</v>
       </c>
       <c r="S2" t="n">
         <v>180.9550379164568</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>145.8212395941087</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100826</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.0655737751154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4385270475933</v>
+        <v>67.88003526049118</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
@@ -27560,7 +27560,7 @@
         <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848771</v>
+        <v>54.30080173848769</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731833</v>
+        <v>39.9016956573183</v>
       </c>
       <c r="R4" t="n">
         <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>217.1680990895761</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>69.33174441270489</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>255.0197959140366</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,19 +27827,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>170.3331898051323</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,13 +27864,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>116.9667170707706</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>40.88948983512773</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>196.5247750459406</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>197.1993249768937</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>4.820566934132988e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672562</v>
+        <v>1.231597659672563</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212163</v>
+        <v>12.61309953212164</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4811687745265</v>
+        <v>47.48116877452652</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676342</v>
+        <v>104.5303118676343</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015738</v>
+        <v>156.6638408015739</v>
       </c>
       <c r="L2" t="n">
-        <v>194.355347678778</v>
+        <v>194.3553476787781</v>
       </c>
       <c r="M2" t="n">
-        <v>216.25777255898</v>
+        <v>216.2577725589801</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095246</v>
+        <v>219.7570494095247</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811556</v>
+        <v>207.5103501811557</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579892</v>
+        <v>177.1052829579893</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709655</v>
+        <v>132.9986917709656</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940666</v>
+        <v>77.3643464894067</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978854</v>
+        <v>28.06503166978856</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216644</v>
+        <v>5.391318755216647</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380496</v>
+        <v>0.09852781277380501</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540511</v>
+        <v>0.6589628421540515</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014126</v>
+        <v>6.36419376501413</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784781</v>
+        <v>22.68797504784783</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403692</v>
+        <v>62.25753764403695</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683583</v>
+        <v>106.4080480683584</v>
       </c>
       <c r="L3" t="n">
         <v>143.0787521966505</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247348</v>
+        <v>166.9661552247349</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302328</v>
+        <v>171.3852525302329</v>
       </c>
       <c r="O3" t="n">
-        <v>156.784023238293</v>
+        <v>156.7840232382931</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723819</v>
+        <v>125.833000972382</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.1160287633838</v>
+        <v>84.11602876338384</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163488</v>
+        <v>40.9134999716349</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422107</v>
+        <v>12.23994577422108</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945495</v>
+        <v>2.656082683945496</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276654</v>
+        <v>0.04335281856276656</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654181</v>
+        <v>0.5524523108654185</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967084</v>
+        <v>4.911803272967087</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584367</v>
+        <v>16.61374767584368</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818506</v>
+        <v>39.05837837818508</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509129</v>
+        <v>64.18491393509133</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448226</v>
+        <v>82.13459174448231</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502185</v>
+        <v>86.5994108750219</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361445</v>
+        <v>84.5402704436145</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395931</v>
+        <v>78.08662299395935</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230473</v>
+        <v>66.81659585230476</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437606</v>
+        <v>46.26034759437609</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400325</v>
+        <v>24.84026481400326</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263693</v>
+        <v>9.627737090263699</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515877</v>
+        <v>2.360478055515878</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084102</v>
+        <v>0.03013376241084104</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31852,10 +31852,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
         <v>447.6103584002926</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O15" t="n">
         <v>557.7086478970249</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,13 +32803,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33040,13 +33040,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302171</v>
+        <v>92.58102251302176</v>
       </c>
       <c r="K2" t="n">
-        <v>260.719402327758</v>
+        <v>260.7194023277581</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592412</v>
+        <v>376.2501472592413</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245397</v>
+        <v>435.4250728245398</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249178</v>
+        <v>427.690910224918</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222142</v>
+        <v>358.2123200222143</v>
       </c>
       <c r="P2" t="n">
         <v>267.6709953742023</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564207</v>
+        <v>123.0079925564208</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>61.51094631777909</v>
       </c>
       <c r="K3" t="n">
-        <v>83.6870428571325</v>
+        <v>233.031846106578</v>
       </c>
       <c r="L3" t="n">
         <v>375.3647177202355</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527164</v>
+        <v>490.5371850527165</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904531</v>
+        <v>308.5301652232292</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705781</v>
+        <v>408.0500980705782</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979888</v>
+        <v>310.3213621979889</v>
       </c>
       <c r="Q3" t="n">
         <v>154.2115424132114</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920844</v>
+        <v>41.91542210920848</v>
       </c>
       <c r="L4" t="n">
         <v>109.7246170047984</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.1832878368625</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228431</v>
       </c>
       <c r="O4" t="n">
         <v>102.671750907999</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719822</v>
+        <v>64.09515511719825</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35415,19 +35415,19 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>627.9163536265546</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636241</v>
@@ -35500,10 +35500,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>355.1919758584683</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525805</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>520.276140562945</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>676.3852163291939</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36451,13 +36451,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0150438593984</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>455.8670844338408</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222472</v>
@@ -36688,13 +36688,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36843,19 +36843,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>436.1813745723072</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493451</v>
+        <v>654.305551822328</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302265</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>883.6236994779111</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908542</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P38" t="n">
-        <v>502.5482327048871</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37782,10 +37782,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302265</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>759.2397825566179</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
@@ -38022,25 +38022,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>837.4077714107349</v>
       </c>
       <c r="M44" t="n">
         <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
-        <v>983.951288798833</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
